--- a/Ilagan-System-Database-Design (1).xlsx
+++ b/Ilagan-System-Database-Design (1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="239">
   <si>
     <t>Users</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Email﻿</t>
   </si>
   <si>
-    <t>AccessLevel</t>
-  </si>
-  <si>
-    <t>Status﻿</t>
-  </si>
-  <si>
     <t>LogReport</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>minimum 8char</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -315,9 +306,6 @@
     <t>limited to number</t>
   </si>
   <si>
-    <t>Varchar</t>
-  </si>
-  <si>
     <t>Primary key</t>
   </si>
   <si>
@@ -336,13 +324,7 @@
     <t>Values: Activate, Deactivate</t>
   </si>
   <si>
-    <t>Values: 1 - Admin, 2 - Service, 3 - Inventory</t>
-  </si>
-  <si>
     <t>staton/ pc name</t>
-  </si>
-  <si>
-    <t>minimum 1char</t>
   </si>
   <si>
     <r>
@@ -688,24 +670,15 @@
     <t>ItemID</t>
   </si>
   <si>
-    <t>from user table getting the names full name?</t>
-  </si>
-  <si>
     <t>omgoing Service Request</t>
   </si>
   <si>
     <t>remove the file name</t>
   </si>
   <si>
-    <t xml:space="preserve">separate the downpayment </t>
-  </si>
-  <si>
     <t xml:space="preserve">malaman kung ilan beses nag bayad </t>
   </si>
   <si>
-    <t xml:space="preserve">separate the returned equipments </t>
-  </si>
-  <si>
     <t>AccessLevels</t>
   </si>
   <si>
@@ -725,13 +698,88 @@
   </si>
   <si>
     <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar </t>
+  </si>
+  <si>
+    <t>AccessLevelID</t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PermissionID  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PermissionName  </t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>UNIQUE / Values: 1 - Admin, 2 - Service, 3 - Inventory</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>User/AccessLevels</t>
+  </si>
+  <si>
+    <t>UserAccessLevelID</t>
+  </si>
+  <si>
+    <t>AccessLevel/Permissions</t>
+  </si>
+  <si>
+    <t>PermissionID</t>
+  </si>
+  <si>
+    <t>AccessLevelPermissionID</t>
+  </si>
+  <si>
+    <t>from user table getting the first name and lastname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServiceInvoices </t>
+  </si>
+  <si>
+    <t>InvoiceID</t>
+  </si>
+  <si>
+    <t>IncomingPayments</t>
+  </si>
+  <si>
+    <t>PaymentID</t>
+  </si>
+  <si>
+    <t>PaymentStatus</t>
+  </si>
+  <si>
+    <t>PaymentStatusID</t>
+  </si>
+  <si>
+    <t>PaymentStatusName</t>
+  </si>
+  <si>
+    <t>ReturnedEquipment</t>
+  </si>
+  <si>
+    <t>ReturnedEquipmentID</t>
+  </si>
+  <si>
+    <t>DownPayment</t>
+  </si>
+  <si>
+    <t>DownpaymentID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,6 +847,13 @@
       <color theme="1"/>
       <name val="Helvetica"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -844,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -892,13 +947,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -907,6 +959,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1209,19 +1271,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG110"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="5" max="5" width="69.28515625" customWidth="1"/>
     <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="99.5703125" customWidth="1"/>
@@ -1241,33 +1303,33 @@
     <col min="56" max="56" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:28">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="G1" s="29"/>
+      <c r="F1" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="30"/>
       <c r="H1" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:59">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1275,848 +1337,945 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="J2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="S2" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="30"/>
       <c r="T2" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y2" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="X2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y2" s="30"/>
       <c r="Z2" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59">
-      <c r="A3" s="30"/>
-      <c r="B3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>50</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>166</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H3" s="2">
         <v>100</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>220</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB3" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC3" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="BD3" s="29"/>
-      <c r="BE3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59">
-      <c r="A4" s="30"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="25"/>
       <c r="B4" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10">
         <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="10"/>
       <c r="R4" s="19"/>
       <c r="S4" s="19" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="U4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>222</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59">
-      <c r="A5" s="30"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="25"/>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10">
-        <v>100</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T5">
         <v>100</v>
       </c>
       <c r="U5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V5" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="X5" s="23"/>
       <c r="Y5" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA5" t="s">
-        <v>122</v>
-      </c>
-      <c r="BC5" s="25"/>
-      <c r="BD5" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="BE5" s="2">
-        <v>100</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59">
-      <c r="A6" s="30"/>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="25"/>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10">
         <v>100</v>
       </c>
       <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6" t="s">
+        <v>213</v>
+      </c>
+      <c r="J6" t="s">
         <v>96</v>
       </c>
       <c r="R6" s="12"/>
       <c r="S6" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T6">
         <v>100</v>
       </c>
       <c r="U6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X6" s="23"/>
       <c r="Y6" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Z6" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59">
-      <c r="A7" s="30"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="25"/>
       <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>101</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="T7">
         <v>50</v>
       </c>
       <c r="U7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="X7" s="23"/>
       <c r="Y7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z7" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59">
-      <c r="A8" s="30"/>
-      <c r="B8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="25"/>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11">
+        <v>100</v>
+      </c>
       <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="10"/>
       <c r="R8" s="12"/>
       <c r="S8" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="X8" s="23"/>
       <c r="Y8" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Z8" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59">
-      <c r="A9" s="30"/>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="10">
+        <v>15</v>
+      </c>
       <c r="D9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="E9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="11"/>
       <c r="X9" s="23"/>
       <c r="Y9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="AA9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59">
-      <c r="A10" s="30"/>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="26"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="F10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" t="s">
+        <v>213</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="11"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="2">
         <v>50</v>
       </c>
-      <c r="D10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="11"/>
-      <c r="R10" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="S10" s="29"/>
-      <c r="T10" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59">
-      <c r="C11" s="10"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>219</v>
+      </c>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
       <c r="R11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="U11" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59">
-      <c r="L12" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="M12" s="32"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="31"/>
       <c r="R12" s="19"/>
       <c r="S12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="U12" t="s">
         <v>118</v>
       </c>
-      <c r="U12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59">
-      <c r="L13" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="29"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="30"/>
       <c r="N13" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R13" s="19"/>
       <c r="S13" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T13">
         <v>100</v>
       </c>
       <c r="U13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
       <c r="L14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="R14" s="16"/>
       <c r="S14" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T14">
         <v>100</v>
       </c>
       <c r="U14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
       <c r="L15" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="20" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="T15">
         <v>50</v>
       </c>
       <c r="U15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
       <c r="L16" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="R16" s="19"/>
       <c r="S16" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="12:27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
       <c r="L17" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D18" t="s">
+        <v>89</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="s">
+        <v>138</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="30"/>
+      <c r="T18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="U18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O17" t="s">
-        <v>97</v>
-      </c>
-      <c r="P17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="12:27">
-      <c r="L18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" t="s">
-        <v>97</v>
-      </c>
-      <c r="P18" t="s">
-        <v>144</v>
-      </c>
-      <c r="R18" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="29"/>
-      <c r="T18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="U18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="12:27">
-      <c r="L19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="O19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="S19" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="U19" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="12:27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="L20" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="R20" s="19"/>
       <c r="S20" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="U20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="12:27">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="L21" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="T21">
         <v>100</v>
       </c>
       <c r="U21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="L22" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O22" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="R22" s="16"/>
       <c r="S22" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="T22">
         <v>100</v>
       </c>
       <c r="U22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="L23" s="23"/>
       <c r="M23" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="N23" s="10">
         <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="T23">
         <v>50</v>
       </c>
       <c r="U23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="L24" s="19"/>
       <c r="M24" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="N24" s="10">
         <v>100</v>
       </c>
       <c r="O24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T24" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="U24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="12:27">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="L25" s="19"/>
       <c r="M25" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N25" s="10">
         <v>50</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="L26" s="23"/>
       <c r="M26" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N26" s="10">
         <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>96</v>
-      </c>
-      <c r="R26" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="S26" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="R26" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="S26" s="30"/>
       <c r="T26" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="12:27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="L27" s="23"/>
       <c r="M27" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="O27" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="U27" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="12:27">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="L28" s="19"/>
       <c r="M28" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="O28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="R28" s="16"/>
       <c r="S28" s="8" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="T28">
         <v>100</v>
       </c>
       <c r="U28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="L29" s="23"/>
       <c r="M29" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N29" s="10">
         <v>200</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R29" s="16"/>
       <c r="S29" s="8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="T29">
         <v>100</v>
       </c>
       <c r="U29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="L30" s="23"/>
       <c r="M30" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>100</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="8" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="T30">
         <v>50</v>
       </c>
       <c r="U30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="12:27">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="L31" s="23"/>
       <c r="M31" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>100</v>
       </c>
       <c r="O31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="12:27">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="L32" s="23"/>
       <c r="M32" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>100</v>
       </c>
       <c r="O32" t="s">
-        <v>96</v>
-      </c>
-      <c r="R32" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="S32" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="R32" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="S32" s="30"/>
       <c r="T32" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U32" t="s">
-        <v>95</v>
-      </c>
-      <c r="X32" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y32" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="X32" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y32" s="30"/>
       <c r="Z32" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AA32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="3:28">
-      <c r="F33" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="29"/>
+      <c r="F33" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="30"/>
       <c r="H33" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L33" s="23"/>
       <c r="M33" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>100</v>
       </c>
       <c r="O33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="U33" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>1</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AA33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB33" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="3:28">
@@ -2124,206 +2283,206 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L34" s="23"/>
       <c r="M34" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="U34" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V34" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="X34" s="23"/>
       <c r="Y34" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Z34">
         <v>100</v>
       </c>
       <c r="AA34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="3:28" ht="15.75">
       <c r="F35" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="N35">
         <v>100</v>
       </c>
       <c r="O35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U35" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V35" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="X35" s="23"/>
       <c r="Y35" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="AA35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="3:28">
-      <c r="F36" s="30"/>
+      <c r="F36" s="33"/>
       <c r="G36" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L36" s="23"/>
       <c r="M36" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N36">
         <v>100</v>
       </c>
       <c r="O36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U36" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="X36" s="23"/>
       <c r="Y36" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Z36">
         <v>200</v>
       </c>
       <c r="AA36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="3:28">
-      <c r="F37" s="30"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L37" s="23"/>
       <c r="M37" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N37">
         <v>100</v>
       </c>
       <c r="O37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R37" s="16"/>
       <c r="S37" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="U37" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="3:28">
-      <c r="F38" s="30"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L38" s="23"/>
       <c r="M38" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N38" s="10">
         <v>50</v>
       </c>
       <c r="O38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="R38" s="16"/>
       <c r="S38" s="8" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="U38" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:28">
-      <c r="F39" s="30"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L39" s="23"/>
       <c r="M39" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R39" s="19"/>
       <c r="S39" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="U39" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:28">
-      <c r="F40" s="30"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="8" t="s">
         <v>5</v>
       </c>
@@ -2331,34 +2490,34 @@
         <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J40" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L40" s="23"/>
       <c r="M40" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="R40" s="19"/>
       <c r="S40" s="13" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="T40">
         <v>100</v>
       </c>
       <c r="U40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="V40" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="3:28">
-      <c r="F41" s="30"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="8" t="s">
         <v>6</v>
       </c>
@@ -2366,45 +2525,45 @@
         <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J41" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L41" s="23"/>
       <c r="M41" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="N41">
         <v>100</v>
       </c>
       <c r="O41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="3:28">
-      <c r="F42" s="30"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H42" s="10">
         <v>100</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
-      </c>
-      <c r="R42" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="S42" s="29"/>
+        <v>93</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="S42" s="30"/>
       <c r="T42" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U42" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="3:28">
@@ -2412,53 +2571,53 @@
         <v>1</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="U43" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V43" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="3:28">
       <c r="R44" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="U44" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="V44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="11"/>
       <c r="R45" s="17"/>
       <c r="S45" s="19" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="T45">
         <v>200</v>
       </c>
       <c r="U45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="3:28">
       <c r="C46" s="11"/>
       <c r="R46" s="17"/>
       <c r="S46" s="19" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="T46">
         <v>100</v>
       </c>
       <c r="U46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="3:28">
@@ -2474,60 +2633,60 @@
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="L51" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="M51" s="29"/>
+      <c r="L51" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="M51" s="30"/>
       <c r="N51" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O51" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="32"/>
-      <c r="B52" s="32"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
       <c r="C52" s="1"/>
-      <c r="F52" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="G52" s="31"/>
+      <c r="F52" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G52" s="34"/>
       <c r="L52" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O52" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="F53" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G53" s="29"/>
+      <c r="F53" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="30"/>
       <c r="H53" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O53" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2535,196 +2694,196 @@
         <v>1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J54" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O54" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:16">
       <c r="F55" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I55" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O55" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:16">
       <c r="F56" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N56">
         <v>100</v>
       </c>
       <c r="O56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:16">
       <c r="F57" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N57">
         <v>100</v>
       </c>
       <c r="O57" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:16">
       <c r="F58" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N58">
         <v>100</v>
       </c>
       <c r="O58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:16">
       <c r="F59" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J59" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N59">
         <v>200</v>
       </c>
       <c r="O59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B60" s="29"/>
+      <c r="A60" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="30"/>
       <c r="C60" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J60" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N60">
         <v>100</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -2732,447 +2891,444 @@
         <v>1</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>133</v>
+        <v>127</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
       </c>
       <c r="L61" s="12"/>
       <c r="M61" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N61">
         <v>200</v>
       </c>
       <c r="O61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="I62" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L62" s="12"/>
       <c r="M62" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O62" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:16">
       <c r="A63" s="28"/>
       <c r="B63" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C63" s="10">
         <v>100</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H63" s="10">
         <v>100</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L63" s="12"/>
       <c r="M63" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N63">
         <v>50</v>
       </c>
       <c r="O63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:16">
       <c r="A64" s="28"/>
       <c r="B64" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C64" s="10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
-      </c>
-      <c r="E64" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H64" s="10">
         <v>100</v>
       </c>
       <c r="I64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L64" s="12"/>
       <c r="M64" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O64" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="28"/>
       <c r="B65" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" s="10">
         <v>100</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H65" s="10">
         <v>50</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L65" s="12"/>
       <c r="M65" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O65" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="28"/>
       <c r="B66" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C66" s="10">
         <v>100</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H66" s="10">
         <v>200</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S66" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="28"/>
       <c r="B67" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C67" s="10">
         <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="8" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I67" t="s">
-        <v>112</v>
-      </c>
-      <c r="L67" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="M67" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="L67" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="M67" s="30"/>
       <c r="N67" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O67" t="s">
-        <v>95</v>
-      </c>
-      <c r="R67" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="S67" s="29"/>
+        <v>92</v>
+      </c>
+      <c r="R67" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="S67" s="30"/>
       <c r="T67" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="U67" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="28"/>
       <c r="B68" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I68" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L68" s="5" t="s">
         <v>1</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O68" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="R68" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="28"/>
       <c r="B69" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F69" s="16"/>
       <c r="G69" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H69" s="10">
         <v>200</v>
       </c>
       <c r="I69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O69" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="28"/>
       <c r="B70" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C70" s="11">
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H70">
         <v>100</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O70" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P70" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S70" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="F71" s="16"/>
       <c r="G71" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>100</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O71" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P71" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:22">
       <c r="F72" s="16"/>
       <c r="G72" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O72" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S72" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="29"/>
+      <c r="A73" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" s="30"/>
       <c r="C73" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F73" s="16"/>
       <c r="G73" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L73" s="12"/>
       <c r="M73" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N73">
         <v>100</v>
       </c>
       <c r="O73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="R73" s="17"/>
       <c r="S73" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -3180,569 +3336,661 @@
         <v>1</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E74" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I74" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="L74" s="12"/>
       <c r="M74" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="N74">
         <v>100</v>
       </c>
       <c r="O74" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P74" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="28"/>
       <c r="B75" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C75" s="11">
         <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H75">
         <v>100</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L75" s="12"/>
       <c r="M75" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N75">
         <v>100</v>
       </c>
       <c r="O75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P75" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="R75" s="7"/>
       <c r="S75" s="8" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="V75" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="28"/>
       <c r="B76" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C76" s="11">
         <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H76">
         <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L76" s="12"/>
       <c r="M76" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N76">
         <v>200</v>
       </c>
       <c r="O76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="R76" s="23"/>
       <c r="S76" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="28"/>
       <c r="B77" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C77" s="11">
         <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F77" s="16"/>
       <c r="G77" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>100</v>
       </c>
       <c r="I77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L77" s="12"/>
       <c r="M77" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N77">
         <v>100</v>
       </c>
       <c r="O77" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="R77" s="17"/>
       <c r="S77" s="8" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="V77" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="28"/>
       <c r="B78" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H78" s="10">
         <v>50</v>
       </c>
       <c r="I78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J78" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L78" s="12"/>
       <c r="M78" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N78">
         <v>200</v>
       </c>
       <c r="O78" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="R78" s="17"/>
       <c r="S78" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="28"/>
       <c r="B79" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F79" s="16"/>
       <c r="G79" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I79" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L79" s="12"/>
       <c r="M79" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="O79" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="R79" s="17"/>
       <c r="S79" s="8" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="V79" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="28"/>
       <c r="B80" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C80" s="11">
         <v>50</v>
       </c>
       <c r="D80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E80" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H80">
         <v>100</v>
       </c>
       <c r="I80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J80" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="L80" s="12"/>
       <c r="M80" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N80">
         <v>50</v>
       </c>
       <c r="O80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="R80" s="23"/>
       <c r="S80" s="8" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="V80" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="C81" s="11"/>
       <c r="L81" s="12"/>
       <c r="M81" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O81" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P81" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="R81" s="17"/>
       <c r="S81" s="8" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>206</v>
+      </c>
       <c r="C82" s="11"/>
       <c r="R82" s="23"/>
       <c r="S82" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:19">
+      <c r="A83" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B83" s="30"/>
       <c r="C83" s="11"/>
+      <c r="F83" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" s="30"/>
+      <c r="H83" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I83" t="s">
+        <v>92</v>
+      </c>
       <c r="R83" s="7"/>
       <c r="S83" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:19">
+      <c r="A84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="C84" s="11"/>
+      <c r="D84" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I84" t="s">
+        <v>89</v>
+      </c>
       <c r="R84" s="7"/>
       <c r="S84" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>62</v>
+        <v>159</v>
+      </c>
+      <c r="F85" s="37"/>
+      <c r="G85" s="38" t="s">
+        <v>234</v>
       </c>
       <c r="I85" t="s">
-        <v>97</v>
-      </c>
-      <c r="J85" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="R85" s="7"/>
       <c r="S85" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C86" s="15"/>
       <c r="D86" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
-      </c>
-      <c r="F86" s="25"/>
-      <c r="G86" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I86" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
-      </c>
-      <c r="F87" s="25"/>
-      <c r="G87" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I87" t="s">
-        <v>122</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G87" s="30"/>
     </row>
     <row r="88" spans="1:19">
-      <c r="A88" s="30"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C88" s="10">
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F88" s="26"/>
-      <c r="G88" s="11"/>
+        <v>162</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:19">
-      <c r="A89" s="30"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C89">
         <v>50</v>
       </c>
       <c r="D89" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>163</v>
+      </c>
+      <c r="F89" s="25"/>
+      <c r="G89" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="10">
+        <v>100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>93</v>
+      </c>
+      <c r="J89" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:19">
-      <c r="A90" s="30"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C90" s="10">
         <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>170</v>
+        <v>164</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90">
+        <v>50</v>
+      </c>
+      <c r="I90" t="s">
+        <v>93</v>
+      </c>
+      <c r="J90" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="91" spans="1:19">
-      <c r="A91" s="30"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="F91" s="25"/>
+      <c r="G91" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H91" s="10">
+        <v>100</v>
+      </c>
+      <c r="I91" t="s">
+        <v>93</v>
+      </c>
+      <c r="J91" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="92" spans="1:19">
-      <c r="A92" s="30"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>116</v>
+      </c>
+      <c r="F92" s="25"/>
+      <c r="G92" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I92" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="30"/>
+      <c r="A93" s="25"/>
       <c r="B93" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C93" s="10">
         <v>50</v>
       </c>
       <c r="D93" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>157</v>
+      </c>
+      <c r="F93" s="25"/>
+      <c r="G93" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="30"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D94" t="s">
+        <v>106</v>
+      </c>
+      <c r="F94" s="25"/>
+      <c r="G94" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" s="25"/>
+      <c r="B95" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D95" t="s">
+        <v>116</v>
+      </c>
+      <c r="F95" s="25"/>
+      <c r="G95" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" s="25"/>
+      <c r="B96" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="D94" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
-      <c r="A95" s="30"/>
-      <c r="B95" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C95" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D95" t="s">
-        <v>122</v>
-      </c>
-      <c r="F95" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
-      <c r="A96" s="30"/>
-      <c r="B96" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="C96">
         <v>50</v>
       </c>
       <c r="D96" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
-      </c>
-      <c r="F96" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
     </row>
     <row r="97" spans="1:20">
-      <c r="A97" s="30"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
-      </c>
-      <c r="F97" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
     </row>
     <row r="98" spans="1:20">
-      <c r="A98" s="30"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
+      <c r="F100" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="G100" s="30"/>
+      <c r="H100" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I100" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="101" spans="1:20">
-      <c r="A101" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" s="29"/>
+      <c r="A101" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B101" s="30"/>
       <c r="C101" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D101" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I101" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -3750,162 +3998,265 @@
         <v>1</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I102" t="s">
+        <v>89</v>
+      </c>
+      <c r="J102" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="19"/>
       <c r="B103" s="24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="F103" s="25"/>
+      <c r="G103" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I103" t="s">
+        <v>98</v>
       </c>
       <c r="R103" t="s">
+        <v>190</v>
+      </c>
+      <c r="S103" t="s">
+        <v>192</v>
+      </c>
+      <c r="T103" t="s">
         <v>196</v>
       </c>
-      <c r="S103" t="s">
-        <v>198</v>
-      </c>
-      <c r="T103" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="104" spans="1:20">
-      <c r="A104" s="19"/>
-      <c r="B104" s="19" t="s">
-        <v>123</v>
+      <c r="A104" s="17"/>
+      <c r="B104" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C104">
         <v>100</v>
       </c>
       <c r="D104" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="F104" s="25"/>
+      <c r="G104" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H104" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="I104" t="s">
+        <v>116</v>
       </c>
       <c r="R104" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="S104" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="T104" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="17"/>
       <c r="B105" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C105">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D105" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R105" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S105" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T105" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="17"/>
       <c r="B106" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C106">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="R106" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="S106" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T106" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="17"/>
       <c r="B107" s="8" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C107">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="E107" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="17"/>
       <c r="B108" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="D108" t="s">
-        <v>96</v>
-      </c>
-      <c r="E108" t="s">
-        <v>174</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="17"/>
       <c r="B109" s="8" t="s">
-        <v>173</v>
+        <v>86</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G109" s="30"/>
+      <c r="H109" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I109" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:20">
-      <c r="A110" s="17"/>
-      <c r="B110" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D110" t="s">
-        <v>102</v>
-      </c>
+      <c r="F110" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I110" t="s">
+        <v>94</v>
+      </c>
+      <c r="J110" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="F111" s="19"/>
+      <c r="G111" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="I111" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="F112" s="19"/>
+      <c r="G112" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H112">
+        <v>100</v>
+      </c>
+      <c r="I112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="6:10">
+      <c r="F113" s="29"/>
+      <c r="G113" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H113">
+        <v>200</v>
+      </c>
+      <c r="I113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="6:10">
+      <c r="F114" s="29"/>
+      <c r="G114" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H114">
+        <v>100</v>
+      </c>
+      <c r="I114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="6:10">
+      <c r="F115" s="29"/>
+      <c r="G115" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H115">
+        <v>50</v>
+      </c>
+      <c r="I115" t="s">
+        <v>93</v>
+      </c>
+      <c r="J115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="6:10">
+      <c r="F116" s="29"/>
+      <c r="G116" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="I116" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="117" spans="6:10">
+      <c r="F117" s="9"/>
+      <c r="G117" s="11"/>
+      <c r="I117" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="6:10">
+      <c r="F118" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="A88:A98"/>
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="L13:M13"/>
+  <mergeCells count="33">
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F87:G87"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="R2:S2"/>
@@ -3914,6 +4265,29 @@
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="F36:F42"/>
     <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ilagan-System-Database-Design (1).xlsx
+++ b/Ilagan-System-Database-Design (1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="245">
   <si>
     <t>Users</t>
   </si>
@@ -391,9 +391,6 @@
     <t>CasketType</t>
   </si>
   <si>
-    <t>ArrangementType</t>
-  </si>
-  <si>
     <t>VehicleImage</t>
   </si>
   <si>
@@ -409,9 +406,6 @@
     <t xml:space="preserve">decimal </t>
   </si>
   <si>
-    <t>FileName</t>
-  </si>
-  <si>
     <t>Image</t>
   </si>
   <si>
@@ -673,9 +667,6 @@
     <t>omgoing Service Request</t>
   </si>
   <si>
-    <t>remove the file name</t>
-  </si>
-  <si>
     <t xml:space="preserve">malaman kung ilan beses nag bayad </t>
   </si>
   <si>
@@ -773,6 +764,33 @@
   </si>
   <si>
     <t>DownpaymentID</t>
+  </si>
+  <si>
+    <t>CasketTypeID</t>
+  </si>
+  <si>
+    <t>CasketTypeName</t>
+  </si>
+  <si>
+    <t>ArrangementTypeID</t>
+  </si>
+  <si>
+    <t>ArrangementTypeName</t>
+  </si>
+  <si>
+    <t>FlowerArrangementsType</t>
+  </si>
+  <si>
+    <t>VehicleTypeID</t>
+  </si>
+  <si>
+    <t>VehicleTypeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VehicleTypeID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CasketTypeID </t>
   </si>
 </sst>
 </file>
@@ -899,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -950,14 +968,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,10 +984,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1271,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1297,17 +1318,17 @@
     <col min="21" max="21" width="12.140625" customWidth="1"/>
     <col min="22" max="22" width="35.28515625" customWidth="1"/>
     <col min="24" max="24" width="6.42578125" customWidth="1"/>
-    <col min="25" max="25" width="20" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" customWidth="1"/>
     <col min="26" max="26" width="34.5703125" customWidth="1"/>
     <col min="28" max="28" width="16.42578125" customWidth="1"/>
     <col min="56" max="56" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="11" t="s">
         <v>91</v>
       </c>
@@ -1315,10 +1336,10 @@
         <v>92</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="30"/>
+      <c r="F1" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" s="35"/>
       <c r="H1" s="11" t="s">
         <v>91</v>
       </c>
@@ -1346,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J2" t="s">
         <v>96</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="30"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="11" t="s">
         <v>91</v>
       </c>
       <c r="U2" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" s="30"/>
+      <c r="X2" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y2" s="35"/>
       <c r="Z2" s="11" t="s">
         <v>91</v>
       </c>
@@ -1376,21 +1397,21 @@
       </c>
     </row>
     <row r="3" spans="1:28">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
         <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F3" s="25"/>
       <c r="G3" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H3" s="2">
         <v>100</v>
@@ -1399,7 +1420,7 @@
         <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="R3" s="3" t="s">
         <v>1</v>
@@ -1413,11 +1434,11 @@
       <c r="V3" t="s">
         <v>96</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>47</v>
+      <c r="Y3" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="AA3" t="s">
         <v>94</v>
@@ -1439,24 +1460,24 @@
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="10"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19" t="s">
-        <v>113</v>
+      <c r="R4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="U4" t="s">
-        <v>118</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>23</v>
+        <v>89</v>
+      </c>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19" t="s">
+        <v>239</v>
       </c>
       <c r="AA4" t="s">
         <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -1470,10 +1491,10 @@
       <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>210</v>
-      </c>
-      <c r="G5" s="30"/>
+      <c r="F5" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G5" s="35"/>
       <c r="H5" s="11" t="s">
         <v>91</v>
       </c>
@@ -1482,26 +1503,18 @@
       </c>
       <c r="R5" s="19"/>
       <c r="S5" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="U5" t="s">
-        <v>93</v>
-      </c>
-      <c r="V5" t="s">
-        <v>205</v>
-      </c>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="8" t="s">
-        <v>48</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="10"/>
       <c r="Z5" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -1519,10 +1532,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J6" t="s">
         <v>96</v>
@@ -1537,15 +1550,13 @@
       <c r="U6" t="s">
         <v>93</v>
       </c>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
       <c r="Z6" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1561,7 +1572,7 @@
       </c>
       <c r="F7" s="25"/>
       <c r="G7" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H7" s="2">
         <v>100</v>
@@ -1572,25 +1583,23 @@
       <c r="J7" t="s">
         <v>101</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T7">
-        <v>50</v>
+      <c r="R7" s="12"/>
+      <c r="S7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T7" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
-      </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="8" t="s">
-        <v>50</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="10"/>
       <c r="Z7" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1606,25 +1615,11 @@
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="10"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T8" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="U8" t="s">
-        <v>116</v>
-      </c>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="8" t="s">
-        <v>51</v>
-      </c>
       <c r="Z8" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1636,27 +1631,23 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="30"/>
+        <v>218</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="35"/>
       <c r="H9" s="11" t="s">
         <v>91</v>
       </c>
       <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="Z9" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AA9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1667,34 +1658,38 @@
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J10" t="s">
         <v>96</v>
       </c>
-      <c r="R10" s="30" t="s">
+      <c r="R10" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S10" s="30"/>
+      <c r="S10" s="35"/>
       <c r="T10" s="11" t="s">
         <v>91</v>
       </c>
       <c r="U10" t="s">
         <v>92</v>
       </c>
+      <c r="X10" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y10" s="35"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11" s="30" t="s">
-        <v>222</v>
-      </c>
-      <c r="B11" s="30"/>
+      <c r="A11" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" s="35"/>
       <c r="C11" s="11"/>
       <c r="F11" s="25"/>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H11" s="2">
         <v>50</v>
@@ -1703,10 +1698,10 @@
         <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>219</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
+        <v>216</v>
+      </c>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
       <c r="R11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1719,44 +1714,56 @@
       <c r="V11" t="s">
         <v>96</v>
       </c>
+      <c r="X11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>223</v>
+      <c r="B12" s="32" t="s">
+        <v>220</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="31" t="s">
-        <v>201</v>
-      </c>
-      <c r="M12" s="31"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19" t="s">
-        <v>112</v>
+      <c r="L12" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="R12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="U12" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="36" t="s">
+      <c r="A13" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="L13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="M13" s="30"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="11" t="s">
         <v>91</v>
       </c>
@@ -1765,21 +1772,18 @@
       </c>
       <c r="R13" s="19"/>
       <c r="S13" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="T13">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="U13" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>215</v>
+      <c r="A14" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="D14" t="s">
         <v>89</v>
@@ -1818,24 +1822,24 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
-      </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="T15">
-        <v>50</v>
+        <v>147</v>
+      </c>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="U15" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="30"/>
+      <c r="A16" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B16" s="35"/>
       <c r="C16" s="11" t="s">
         <v>91</v>
       </c>
@@ -1852,25 +1856,15 @@
         <v>89</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
-      </c>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="U16" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>226</v>
+      <c r="B17" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" t="s">
@@ -1886,15 +1880,15 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>215</v>
+      <c r="A18" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>89</v>
@@ -1909,25 +1903,29 @@
         <v>89</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
-      </c>
-      <c r="R18" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="R18" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="S18" s="30"/>
+      <c r="S18" s="35"/>
       <c r="T18" s="11" t="s">
         <v>91</v>
       </c>
       <c r="U18" t="s">
         <v>92</v>
       </c>
+      <c r="X18" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y18" s="35"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>225</v>
+      <c r="A19" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>222</v>
       </c>
       <c r="D19" t="s">
         <v>89</v>
@@ -1942,7 +1940,7 @@
         <v>89</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R19" s="3" t="s">
         <v>1</v>
@@ -1956,26 +1954,38 @@
       <c r="V19" t="s">
         <v>96</v>
       </c>
+      <c r="X19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20" spans="1:27">
       <c r="L20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O20" t="s">
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
-      </c>
-      <c r="R20" s="19"/>
-      <c r="S20" s="19" t="s">
-        <v>114</v>
+        <v>138</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>244</v>
       </c>
       <c r="U20" t="s">
-        <v>118</v>
+        <v>89</v>
+      </c>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:27">
@@ -1983,20 +1993,17 @@
         <v>10</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O21" t="s">
         <v>89</v>
       </c>
       <c r="R21" s="19"/>
       <c r="S21" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="T21">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="U21" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -2004,13 +2011,13 @@
         <v>10</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O22" t="s">
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R22" s="16"/>
       <c r="S22" s="20" t="s">
@@ -2026,7 +2033,7 @@
     <row r="23" spans="1:27">
       <c r="L23" s="23"/>
       <c r="M23" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N23" s="10">
         <v>100</v>
@@ -2035,20 +2042,24 @@
         <v>93</v>
       </c>
       <c r="R23" s="16"/>
-      <c r="S23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="T23">
-        <v>50</v>
+      <c r="S23" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>150</v>
       </c>
       <c r="U23" t="s">
-        <v>93</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="X23" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y23" s="35"/>
     </row>
     <row r="24" spans="1:27">
       <c r="L24" s="19"/>
       <c r="M24" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N24" s="10">
         <v>100</v>
@@ -2056,27 +2067,29 @@
       <c r="O24" t="s">
         <v>93</v>
       </c>
-      <c r="R24" s="16"/>
-      <c r="S24" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="T24" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="U24" t="s">
-        <v>116</v>
+      <c r="X24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="L25" s="19"/>
       <c r="M25" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N25" s="10">
         <v>50</v>
       </c>
       <c r="O25" t="s">
         <v>93</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:27">
@@ -2090,21 +2103,25 @@
       <c r="O26" t="s">
         <v>93</v>
       </c>
-      <c r="R26" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="S26" s="30"/>
+      <c r="R26" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="35"/>
       <c r="T26" s="11" t="s">
         <v>91</v>
       </c>
       <c r="U26" t="s">
         <v>92</v>
+      </c>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="L27" s="23"/>
       <c r="M27" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O27" t="s">
         <v>106</v>
@@ -2113,19 +2130,23 @@
         <v>1</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U27" t="s">
         <v>89</v>
       </c>
       <c r="V27" t="s">
         <v>96</v>
+      </c>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="L28" s="19"/>
       <c r="M28" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O28" t="s">
         <v>105</v>
@@ -2139,6 +2160,10 @@
       </c>
       <c r="U28" t="s">
         <v>93</v>
+      </c>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:27">
@@ -2162,6 +2187,10 @@
       <c r="U29" t="s">
         <v>93</v>
       </c>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="30" spans="1:27">
       <c r="L30" s="23"/>
@@ -2176,13 +2205,17 @@
       </c>
       <c r="R30" s="16"/>
       <c r="S30" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T30">
         <v>50</v>
       </c>
       <c r="U30" t="s">
         <v>93</v>
+      </c>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:27">
@@ -2197,7 +2230,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -2211,20 +2244,20 @@
       <c r="O32" t="s">
         <v>93</v>
       </c>
-      <c r="R32" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="S32" s="30"/>
+      <c r="R32" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="S32" s="35"/>
       <c r="T32" s="11" t="s">
         <v>91</v>
       </c>
       <c r="U32" t="s">
         <v>92</v>
       </c>
-      <c r="X32" s="30" t="s">
+      <c r="X32" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="Y32" s="30"/>
+      <c r="Y32" s="35"/>
       <c r="Z32" s="11" t="s">
         <v>91</v>
       </c>
@@ -2233,10 +2266,10 @@
       </c>
     </row>
     <row r="33" spans="3:28">
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="30"/>
+      <c r="G33" s="35"/>
       <c r="H33" s="11" t="s">
         <v>91</v>
       </c>
@@ -2257,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U33" t="s">
         <v>89</v>
@@ -2269,10 +2302,10 @@
         <v>1</v>
       </c>
       <c r="Y33" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AA33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AB33" t="s">
         <v>96</v>
@@ -2302,17 +2335,17 @@
         <v>10</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U34" t="s">
         <v>89</v>
       </c>
       <c r="V34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="X34" s="23"/>
       <c r="Y34" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Z34">
         <v>100</v>
@@ -2336,7 +2369,7 @@
       </c>
       <c r="L35" s="23"/>
       <c r="M35" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N35">
         <v>100</v>
@@ -2345,7 +2378,7 @@
         <v>93</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R35" s="5" t="s">
         <v>10</v>
@@ -2357,18 +2390,18 @@
         <v>89</v>
       </c>
       <c r="V35" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="X35" s="23"/>
       <c r="Y35" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AA35" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="3:28">
-      <c r="F36" s="33"/>
+      <c r="F36" s="36"/>
       <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
@@ -2387,14 +2420,14 @@
       </c>
       <c r="R36" s="16"/>
       <c r="S36" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U36" t="s">
         <v>106</v>
       </c>
       <c r="X36" s="23"/>
       <c r="Y36" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Z36">
         <v>200</v>
@@ -2404,7 +2437,7 @@
       </c>
     </row>
     <row r="37" spans="3:28">
-      <c r="F37" s="33"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="8" t="s">
         <v>12</v>
       </c>
@@ -2423,14 +2456,14 @@
       </c>
       <c r="R37" s="16"/>
       <c r="S37" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U37" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="38" spans="3:28">
-      <c r="F38" s="33"/>
+      <c r="F38" s="36"/>
       <c r="G38" s="7" t="s">
         <v>13</v>
       </c>
@@ -2448,18 +2481,18 @@
         <v>93</v>
       </c>
       <c r="P38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="R38" s="16"/>
       <c r="S38" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="3:28">
-      <c r="F39" s="33"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="8" t="s">
         <v>14</v>
       </c>
@@ -2475,14 +2508,14 @@
       </c>
       <c r="R39" s="19"/>
       <c r="S39" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="U39" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="40" spans="3:28">
-      <c r="F40" s="33"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="8" t="s">
         <v>5</v>
       </c>
@@ -2504,7 +2537,7 @@
       </c>
       <c r="R40" s="19"/>
       <c r="S40" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="T40">
         <v>100</v>
@@ -2513,11 +2546,11 @@
         <v>93</v>
       </c>
       <c r="V40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="3:28">
-      <c r="F41" s="33"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="8" t="s">
         <v>6</v>
       </c>
@@ -2541,11 +2574,11 @@
         <v>93</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="3:28">
-      <c r="F42" s="33"/>
+      <c r="F42" s="36"/>
       <c r="G42" s="8" t="s">
         <v>102</v>
       </c>
@@ -2555,10 +2588,10 @@
       <c r="I42" t="s">
         <v>93</v>
       </c>
-      <c r="R42" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="S42" s="30"/>
+      <c r="R42" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="S42" s="35"/>
       <c r="T42" s="11" t="s">
         <v>91</v>
       </c>
@@ -2571,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="U43" t="s">
         <v>89</v>
       </c>
       <c r="V43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="3:28">
@@ -2591,14 +2624,14 @@
         <v>89</v>
       </c>
       <c r="V44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="3:28">
       <c r="C45" s="11"/>
       <c r="R45" s="17"/>
       <c r="S45" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T45">
         <v>200</v>
@@ -2633,10 +2666,10 @@
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="M51" s="30"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="11" t="s">
         <v>91</v>
       </c>
@@ -2645,13 +2678,13 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
       <c r="C52" s="1"/>
-      <c r="F52" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="G52" s="34"/>
+      <c r="F52" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G52" s="37"/>
       <c r="L52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2662,14 +2695,14 @@
         <v>89</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:16">
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="35"/>
       <c r="H53" s="11" t="s">
         <v>91</v>
       </c>
@@ -2686,7 +2719,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2712,7 +2745,7 @@
         <v>89</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -2726,7 +2759,7 @@
         <v>89</v>
       </c>
       <c r="J55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L55" s="5" t="s">
         <v>10</v>
@@ -2738,7 +2771,7 @@
         <v>89</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -2752,7 +2785,7 @@
         <v>89</v>
       </c>
       <c r="J56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L56" s="12"/>
       <c r="M56" s="8" t="s">
@@ -2765,7 +2798,7 @@
         <v>93</v>
       </c>
       <c r="P56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -2779,7 +2812,7 @@
         <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L57" s="12"/>
       <c r="M57" s="8" t="s">
@@ -2792,7 +2825,7 @@
         <v>93</v>
       </c>
       <c r="P57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -2806,7 +2839,7 @@
         <v>89</v>
       </c>
       <c r="J58" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="8" t="s">
@@ -2819,7 +2852,7 @@
         <v>93</v>
       </c>
       <c r="P58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -2833,7 +2866,7 @@
         <v>89</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L59" s="12"/>
       <c r="M59" s="8" t="s">
@@ -2846,14 +2879,14 @@
         <v>93</v>
       </c>
       <c r="P59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B60" s="30"/>
+      <c r="B60" s="35"/>
       <c r="C60" s="11" t="s">
         <v>91</v>
       </c>
@@ -2864,13 +2897,13 @@
         <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I60" t="s">
         <v>89</v>
       </c>
       <c r="J60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L60" s="12"/>
       <c r="M60" s="8" t="s">
@@ -2883,7 +2916,7 @@
         <v>93</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -2904,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
         <v>89</v>
@@ -2920,7 +2953,7 @@
         <v>93</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -2940,13 +2973,13 @@
         <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I62" t="s">
         <v>89</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L62" s="12"/>
       <c r="M62" s="8" t="s">
@@ -2969,7 +3002,7 @@
       </c>
       <c r="F63" s="16"/>
       <c r="G63" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H63" s="10">
         <v>100</v>
@@ -2988,7 +3021,7 @@
         <v>93</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3004,7 +3037,7 @@
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H64" s="10">
         <v>100</v>
@@ -3033,7 +3066,7 @@
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H65" s="10">
         <v>50</v>
@@ -3071,7 +3104,7 @@
         <v>93</v>
       </c>
       <c r="S66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -3087,25 +3120,25 @@
       </c>
       <c r="F67" s="16"/>
       <c r="G67" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I67" t="s">
         <v>106</v>
       </c>
-      <c r="L67" s="30" t="s">
+      <c r="L67" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="M67" s="30"/>
+      <c r="M67" s="35"/>
       <c r="N67" s="11" t="s">
         <v>91</v>
       </c>
       <c r="O67" t="s">
         <v>92</v>
       </c>
-      <c r="R67" s="30" t="s">
-        <v>177</v>
-      </c>
-      <c r="S67" s="30"/>
+      <c r="R67" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="S67" s="35"/>
       <c r="T67" s="11" t="s">
         <v>91</v>
       </c>
@@ -3120,11 +3153,11 @@
       </c>
       <c r="C68" s="11"/>
       <c r="D68" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F68" s="19"/>
       <c r="G68" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I68" t="s">
         <v>105</v>
@@ -3139,13 +3172,13 @@
         <v>89</v>
       </c>
       <c r="P68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="R68" s="5" t="s">
         <v>1</v>
       </c>
       <c r="S68" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -3177,13 +3210,13 @@
         <v>89</v>
       </c>
       <c r="P69" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="S69" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -3198,7 +3231,7 @@
         <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F70" s="16"/>
       <c r="G70" s="8" t="s">
@@ -3220,7 +3253,7 @@
         <v>89</v>
       </c>
       <c r="P70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R70" s="5" t="s">
         <v>10</v>
@@ -3241,7 +3274,7 @@
         <v>93</v>
       </c>
       <c r="J71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L71" s="5" t="s">
         <v>10</v>
@@ -3253,7 +3286,7 @@
         <v>89</v>
       </c>
       <c r="P71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R71" s="5" t="s">
         <v>10</v>
@@ -3283,7 +3316,7 @@
         <v>89</v>
       </c>
       <c r="P72" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R72" s="5" t="s">
         <v>10</v>
@@ -3293,10 +3326,10 @@
       </c>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B73" s="30"/>
+      <c r="B73" s="35"/>
       <c r="C73" s="11" t="s">
         <v>91</v>
       </c>
@@ -3324,7 +3357,7 @@
         <v>93</v>
       </c>
       <c r="P73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R73" s="17"/>
       <c r="S73" s="8" t="s">
@@ -3362,7 +3395,7 @@
         <v>93</v>
       </c>
       <c r="P74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="27" t="s">
@@ -3382,7 +3415,7 @@
       </c>
       <c r="F75" s="16"/>
       <c r="G75" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H75">
         <v>100</v>
@@ -3391,7 +3424,7 @@
         <v>93</v>
       </c>
       <c r="J75" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L75" s="12"/>
       <c r="M75" s="8" t="s">
@@ -3404,14 +3437,14 @@
         <v>93</v>
       </c>
       <c r="P75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R75" s="7"/>
       <c r="S75" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -3446,11 +3479,11 @@
         <v>93</v>
       </c>
       <c r="P76" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R76" s="23"/>
       <c r="S76" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:22">
@@ -3485,14 +3518,14 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R77" s="17"/>
       <c r="S77" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -3517,7 +3550,7 @@
         <v>93</v>
       </c>
       <c r="J78" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L78" s="12"/>
       <c r="M78" s="8" t="s">
@@ -3530,11 +3563,11 @@
         <v>93</v>
       </c>
       <c r="P78" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="R78" s="17"/>
       <c r="S78" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:22">
@@ -3554,17 +3587,17 @@
       </c>
       <c r="L79" s="12"/>
       <c r="M79" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O79" t="s">
         <v>89</v>
       </c>
       <c r="R79" s="17"/>
       <c r="S79" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="80" spans="1:22">
@@ -3579,7 +3612,7 @@
         <v>93</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="8" t="s">
@@ -3592,7 +3625,7 @@
         <v>93</v>
       </c>
       <c r="J80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L80" s="12"/>
       <c r="M80" s="8" t="s">
@@ -3605,14 +3638,14 @@
         <v>93</v>
       </c>
       <c r="P80" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="R80" s="23"/>
       <c r="S80" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="V80" t="s">
         <v>186</v>
-      </c>
-      <c r="V80" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -3625,33 +3658,33 @@
         <v>98</v>
       </c>
       <c r="P81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="R81" s="17"/>
       <c r="S81" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C82" s="11"/>
       <c r="R82" s="23"/>
       <c r="S82" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B83" s="30"/>
+      <c r="A83" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="35"/>
       <c r="C83" s="11"/>
-      <c r="F83" s="30" t="s">
-        <v>232</v>
-      </c>
-      <c r="G83" s="30"/>
+      <c r="F83" s="35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G83" s="35"/>
       <c r="H83" s="11" t="s">
         <v>91</v>
       </c>
@@ -3668,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" t="s">
@@ -3678,7 +3711,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I84" t="s">
         <v>89</v>
@@ -3700,11 +3733,11 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
-      </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="38" t="s">
-        <v>234</v>
+        <v>157</v>
+      </c>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="I85" t="s">
         <v>89</v>
@@ -3726,7 +3759,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -3741,12 +3774,12 @@
         <v>89</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="G87" s="30"/>
+        <v>159</v>
+      </c>
+      <c r="F87" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="G87" s="35"/>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="25"/>
@@ -3760,13 +3793,13 @@
         <v>93</v>
       </c>
       <c r="E88" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
@@ -3783,7 +3816,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F89" s="25"/>
       <c r="G89" s="8" t="s">
@@ -3796,7 +3829,7 @@
         <v>93</v>
       </c>
       <c r="J89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:19">
@@ -3811,7 +3844,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F90" s="25"/>
       <c r="G90" s="8" t="s">
@@ -3824,7 +3857,7 @@
         <v>93</v>
       </c>
       <c r="J90" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:19">
@@ -3833,10 +3866,10 @@
         <v>55</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D91" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F91" s="25"/>
       <c r="G91" s="8" t="s">
@@ -3849,7 +3882,7 @@
         <v>93</v>
       </c>
       <c r="J91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -3858,20 +3891,20 @@
         <v>56</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F92" s="25"/>
       <c r="G92" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H92" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -3886,7 +3919,7 @@
         <v>93</v>
       </c>
       <c r="E93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="8" t="s">
@@ -3912,10 +3945,10 @@
         <v>58</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="8" t="s">
@@ -3934,7 +3967,7 @@
         <v>93</v>
       </c>
       <c r="E96" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -3943,10 +3976,10 @@
         <v>52</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -3961,10 +3994,10 @@
     <row r="100" spans="1:20">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
-      <c r="F100" s="30" t="s">
-        <v>230</v>
-      </c>
-      <c r="G100" s="30"/>
+      <c r="F100" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="G100" s="35"/>
       <c r="H100" s="11" t="s">
         <v>91</v>
       </c>
@@ -3973,10 +4006,10 @@
       </c>
     </row>
     <row r="101" spans="1:20">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B101" s="30"/>
+      <c r="B101" s="35"/>
       <c r="C101" s="11" t="s">
         <v>91</v>
       </c>
@@ -3987,7 +4020,7 @@
         <v>1</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I101" t="s">
         <v>89</v>
@@ -4016,16 +4049,16 @@
         <v>89</v>
       </c>
       <c r="J102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="19"/>
       <c r="B103" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="8" t="s">
@@ -4035,13 +4068,13 @@
         <v>98</v>
       </c>
       <c r="R103" t="s">
+        <v>188</v>
+      </c>
+      <c r="S103" t="s">
         <v>190</v>
       </c>
-      <c r="S103" t="s">
-        <v>192</v>
-      </c>
       <c r="T103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -4060,19 +4093,19 @@
         <v>62</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I104" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R104" t="s">
         <v>77</v>
       </c>
       <c r="S104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T104" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -4090,10 +4123,10 @@
         <v>70</v>
       </c>
       <c r="S105" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="T105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -4108,13 +4141,13 @@
         <v>93</v>
       </c>
       <c r="R106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="S106" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="T106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -4129,13 +4162,13 @@
         <v>93</v>
       </c>
       <c r="E107" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="17"/>
       <c r="B108" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D108" t="s">
         <v>89</v>
@@ -4149,10 +4182,10 @@
       <c r="D109" t="s">
         <v>98</v>
       </c>
-      <c r="F109" s="30" t="s">
-        <v>235</v>
-      </c>
-      <c r="G109" s="30"/>
+      <c r="F109" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="G109" s="35"/>
       <c r="H109" s="11" t="s">
         <v>91</v>
       </c>
@@ -4165,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I110" t="s">
         <v>94</v>
@@ -4177,10 +4210,10 @@
     <row r="111" spans="1:20">
       <c r="F111" s="19"/>
       <c r="G111" s="24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I111" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -4231,13 +4264,13 @@
         <v>93</v>
       </c>
       <c r="J115" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="6:10">
       <c r="F116" s="29"/>
       <c r="G116" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I116" t="s">
         <v>89</v>
@@ -4253,21 +4286,52 @@
     <row r="118" spans="6:10">
       <c r="F118" s="9"/>
     </row>
+    <row r="124" spans="6:10">
+      <c r="F124" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" s="35"/>
+    </row>
+    <row r="125" spans="6:10">
+      <c r="F125" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="126" spans="6:10">
+      <c r="F126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="6:10">
+      <c r="F127" s="25"/>
+      <c r="G127" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="128" spans="6:10">
+      <c r="F128" s="25"/>
+      <c r="G128" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F87:G87"/>
+  <mergeCells count="37">
+    <mergeCell ref="F124:G124"/>
     <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="A73:B73"/>
@@ -4283,11 +4347,18 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="F83:G83"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Ilagan-System-Database-Design (1).xlsx
+++ b/Ilagan-System-Database-Design (1).xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -978,16 +979,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AB128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" topLeftCell="Q17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V46" sqref="R42:V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1336,7 +1337,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="2"/>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>204</v>
       </c>
       <c r="G1" s="35"/>
@@ -1491,7 +1492,7 @@
       <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="37" t="s">
         <v>207</v>
       </c>
       <c r="G5" s="35"/>
@@ -1633,7 +1634,7 @@
       <c r="D9" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="37" t="s">
         <v>213</v>
       </c>
       <c r="G9" s="35"/>
@@ -1700,8 +1701,8 @@
       <c r="J11" t="s">
         <v>216</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
       <c r="R11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1732,10 +1733,10 @@
       <c r="D12" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="39" t="s">
+      <c r="L12" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="M12" s="39"/>
+      <c r="M12" s="36"/>
       <c r="R12" s="3" t="s">
         <v>10</v>
       </c>
@@ -2401,7 +2402,7 @@
       </c>
     </row>
     <row r="36" spans="3:28">
-      <c r="F36" s="36"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="8" t="s">
         <v>11</v>
       </c>
@@ -2437,7 +2438,7 @@
       </c>
     </row>
     <row r="37" spans="3:28">
-      <c r="F37" s="36"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="8" t="s">
         <v>12</v>
       </c>
@@ -2463,7 +2464,7 @@
       </c>
     </row>
     <row r="38" spans="3:28">
-      <c r="F38" s="36"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="7" t="s">
         <v>13</v>
       </c>
@@ -2492,7 +2493,7 @@
       </c>
     </row>
     <row r="39" spans="3:28">
-      <c r="F39" s="36"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="8" t="s">
         <v>14</v>
       </c>
@@ -2515,7 +2516,7 @@
       </c>
     </row>
     <row r="40" spans="3:28">
-      <c r="F40" s="36"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="8" t="s">
         <v>5</v>
       </c>
@@ -2550,7 +2551,7 @@
       </c>
     </row>
     <row r="41" spans="3:28">
-      <c r="F41" s="36"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="8" t="s">
         <v>6</v>
       </c>
@@ -2578,7 +2579,7 @@
       </c>
     </row>
     <row r="42" spans="3:28">
-      <c r="F42" s="36"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="8" t="s">
         <v>102</v>
       </c>
@@ -2678,13 +2679,13 @@
       </c>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="1"/>
-      <c r="F52" s="37" t="s">
+      <c r="F52" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="37"/>
+      <c r="G52" s="39"/>
       <c r="L52" s="5" t="s">
         <v>1</v>
       </c>
@@ -2942,6 +2943,9 @@
       <c r="I61" t="s">
         <v>89</v>
       </c>
+      <c r="J61" t="s">
+        <v>139</v>
+      </c>
       <c r="L61" s="12"/>
       <c r="M61" s="8" t="s">
         <v>79</v>
@@ -2977,9 +2981,6 @@
       </c>
       <c r="I62" t="s">
         <v>89</v>
-      </c>
-      <c r="J62" t="s">
-        <v>139</v>
       </c>
       <c r="L62" s="12"/>
       <c r="M62" s="8" t="s">
@@ -4322,16 +4323,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="L67:M67"/>
     <mergeCell ref="A73:B73"/>
@@ -4347,18 +4338,28 @@
     <mergeCell ref="A83:B83"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F36:F42"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="X23:Y23"/>
     <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F53:G53"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="R32:S32"/>
     <mergeCell ref="R18:S18"/>
-    <mergeCell ref="F36:F42"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="F9:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
